--- a/数值设计/游戏数值计算.xlsx
+++ b/数值设计/游戏数值计算.xlsx
@@ -94,7 +94,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -105,13 +105,6 @@
     <font>
       <b/>
       <sz val="13"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -567,48 +560,51 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -618,111 +614,102 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1105,28 +1092,28 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2"/>
+      <c r="D1" s="1"/>
       <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="2"/>
+      <c r="G1" s="1"/>
       <c r="H1" s="1" t="s">
         <v>5</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="J1" s="2"/>
+      <c r="J1" s="1"/>
       <c r="K1" s="1" t="s">
         <v>6</v>
       </c>
       <c r="L1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="M1" s="2"/>
+      <c r="M1" s="1"/>
       <c r="N1" s="1" t="s">
         <v>7</v>
       </c>
@@ -1135,341 +1122,327 @@
       </c>
     </row>
     <row r="2" ht="22.65" customHeight="1" spans="1:15">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="4">
+      <c r="B2" s="2">
         <v>200</v>
       </c>
-      <c r="C2" s="4">
+      <c r="C2" s="2">
         <v>10</v>
       </c>
-      <c r="D2" s="4"/>
-      <c r="E2" s="3" t="s">
+      <c r="D2" s="2"/>
+      <c r="E2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="F2" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4" t="s">
+      <c r="G2" s="2"/>
+      <c r="H2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="I2" s="6" t="s">
+      <c r="I2" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="J2" s="4"/>
-      <c r="K2" s="4"/>
-      <c r="L2" s="4"/>
-      <c r="M2" s="4"/>
-      <c r="N2" s="5">
+      <c r="J2" s="2"/>
+      <c r="K2" s="2"/>
+      <c r="L2" s="2"/>
+      <c r="M2" s="2"/>
+      <c r="N2" s="3">
         <v>0.1</v>
       </c>
-      <c r="O2" s="4">
+      <c r="O2" s="2">
         <v>1.3</v>
       </c>
     </row>
-    <row r="3" ht="22.65" customHeight="1" spans="1:15">
-      <c r="A3" s="3" t="s">
+    <row r="3" ht="22.65" customHeight="1"/>
+    <row r="4" ht="22.65" customHeight="1" spans="1:15">
+      <c r="A4" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="4">
+      <c r="B4" s="2">
         <v>40</v>
       </c>
-      <c r="C3" s="4">
+      <c r="C4" s="2">
         <v>8</v>
       </c>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4" t="s">
+      <c r="D4" s="2"/>
+      <c r="E4" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F3" s="6" t="s">
+      <c r="F4" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="G3" s="4"/>
-      <c r="H3" s="4">
+      <c r="G4" s="2"/>
+      <c r="H4" s="2">
         <v>0</v>
       </c>
-      <c r="I3" s="4">
+      <c r="I4" s="2">
         <v>0</v>
       </c>
-      <c r="J3" s="4"/>
-      <c r="K3" s="4">
+      <c r="J4" s="2"/>
+      <c r="K4" s="2">
         <v>0</v>
       </c>
-      <c r="L3" s="4">
+      <c r="L4" s="2">
         <v>0</v>
       </c>
-      <c r="M3" s="4"/>
-      <c r="N3" s="5">
+      <c r="M4" s="2"/>
+      <c r="N4" s="3">
         <v>0.05</v>
       </c>
-      <c r="O3" s="4">
-        <v>1.1</v>
-      </c>
-    </row>
-    <row r="4" ht="22.65" customHeight="1" spans="1:15">
-      <c r="A4" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B4" s="4">
-        <v>50</v>
-      </c>
-      <c r="C4" s="4">
-        <v>6</v>
-      </c>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="F4" s="4"/>
-      <c r="G4" s="4"/>
-      <c r="H4" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="I4" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="J4" s="4"/>
-      <c r="K4" s="4">
-        <v>0</v>
-      </c>
-      <c r="L4" s="4">
-        <v>0</v>
-      </c>
-      <c r="M4" s="4"/>
-      <c r="N4" s="5">
-        <v>0.05</v>
-      </c>
-      <c r="O4" s="4">
+      <c r="O4" s="2">
         <v>1.1</v>
       </c>
     </row>
     <row r="5" ht="22.65" customHeight="1" spans="1:15">
-      <c r="A5" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="B5" s="4">
-        <v>20</v>
-      </c>
-      <c r="C5" s="4">
-        <v>3</v>
-      </c>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="F5" s="4">
+      <c r="A5" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" s="2">
+        <v>50</v>
+      </c>
+      <c r="C5" s="2">
+        <v>6</v>
+      </c>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F5" s="2">
         <v>0</v>
       </c>
-      <c r="G5" s="4"/>
-      <c r="H5" s="4">
-        <v>0</v>
-      </c>
-      <c r="I5" s="4">
-        <v>0</v>
-      </c>
-      <c r="J5" s="4"/>
-      <c r="K5" s="4">
-        <v>0</v>
-      </c>
-      <c r="L5" s="4">
-        <v>0</v>
-      </c>
-      <c r="M5" s="4"/>
-      <c r="N5" s="4">
-        <v>0</v>
-      </c>
-      <c r="O5" s="4">
-        <v>0</v>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I5" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="J5" s="2"/>
+      <c r="K5" s="2">
+        <v>1</v>
+      </c>
+      <c r="L5" s="2">
+        <v>1</v>
+      </c>
+      <c r="M5" s="2"/>
+      <c r="N5" s="3">
+        <v>0.05</v>
+      </c>
+      <c r="O5" s="2">
+        <v>1.1</v>
       </c>
     </row>
     <row r="6" ht="22.65" customHeight="1" spans="1:15">
-      <c r="A6" s="4"/>
-      <c r="B6" s="4"/>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
-      <c r="G6" s="4"/>
-      <c r="H6" s="4"/>
-      <c r="I6" s="4"/>
-      <c r="J6" s="4"/>
-      <c r="K6" s="4"/>
-      <c r="L6" s="4"/>
-      <c r="M6" s="4"/>
-      <c r="N6" s="4"/>
-      <c r="O6" s="4"/>
+      <c r="A6" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" s="2">
+        <v>20</v>
+      </c>
+      <c r="C6" s="2">
+        <v>3</v>
+      </c>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F6" s="2">
+        <v>0</v>
+      </c>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2">
+        <v>0</v>
+      </c>
+      <c r="I6" s="2">
+        <v>0</v>
+      </c>
+      <c r="J6" s="2"/>
+      <c r="K6" s="2">
+        <v>0</v>
+      </c>
+      <c r="L6" s="2">
+        <v>0</v>
+      </c>
+      <c r="M6" s="2"/>
+      <c r="N6" s="2">
+        <v>0</v>
+      </c>
+      <c r="O6" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="7" ht="22.65" customHeight="1" spans="1:15">
-      <c r="A7" s="4"/>
-      <c r="B7" s="4"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4"/>
-      <c r="H7" s="4"/>
-      <c r="I7" s="4"/>
-      <c r="J7" s="4"/>
-      <c r="K7" s="4"/>
-      <c r="L7" s="4"/>
-      <c r="M7" s="4"/>
-      <c r="N7" s="4"/>
-      <c r="O7" s="4"/>
+      <c r="A7" s="2"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
+      <c r="J7" s="2"/>
+      <c r="K7" s="2"/>
+      <c r="L7" s="2"/>
+      <c r="M7" s="2"/>
+      <c r="N7" s="2"/>
+      <c r="O7" s="2"/>
     </row>
     <row r="8" ht="22.65" customHeight="1" spans="1:15">
-      <c r="A8" s="4"/>
-      <c r="B8" s="4"/>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4"/>
-      <c r="H8" s="4"/>
-      <c r="I8" s="4"/>
-      <c r="J8" s="4"/>
-      <c r="K8" s="4"/>
-      <c r="L8" s="4"/>
-      <c r="M8" s="4"/>
-      <c r="N8" s="4"/>
-      <c r="O8" s="4"/>
+      <c r="A8" s="2"/>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
+      <c r="J8" s="2"/>
+      <c r="K8" s="2"/>
+      <c r="L8" s="2"/>
+      <c r="M8" s="2"/>
+      <c r="N8" s="2"/>
+      <c r="O8" s="2"/>
     </row>
     <row r="9" ht="22.65" customHeight="1" spans="1:15">
-      <c r="A9" s="4"/>
-      <c r="B9" s="4"/>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
-      <c r="G9" s="4"/>
-      <c r="H9" s="4"/>
-      <c r="I9" s="4"/>
-      <c r="J9" s="4"/>
-      <c r="K9" s="4"/>
-      <c r="L9" s="4"/>
-      <c r="M9" s="4"/>
-      <c r="N9" s="4"/>
-      <c r="O9" s="4"/>
+      <c r="A9" s="2"/>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
+      <c r="J9" s="2"/>
+      <c r="K9" s="2"/>
+      <c r="L9" s="2"/>
+      <c r="M9" s="2"/>
+      <c r="N9" s="2"/>
+      <c r="O9" s="2"/>
     </row>
     <row r="10" ht="22.65" customHeight="1" spans="1:15">
-      <c r="A10" s="4"/>
-      <c r="B10" s="4"/>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
-      <c r="F10" s="4"/>
-      <c r="G10" s="4"/>
-      <c r="H10" s="4"/>
-      <c r="I10" s="4"/>
-      <c r="J10" s="4"/>
-      <c r="K10" s="4"/>
-      <c r="L10" s="4"/>
-      <c r="M10" s="4"/>
-      <c r="N10" s="4"/>
-      <c r="O10" s="4"/>
+      <c r="A10" s="2"/>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
+      <c r="J10" s="2"/>
+      <c r="K10" s="2"/>
+      <c r="L10" s="2"/>
+      <c r="M10" s="2"/>
+      <c r="N10" s="2"/>
+      <c r="O10" s="2"/>
     </row>
     <row r="11" ht="22.65" customHeight="1" spans="1:15">
-      <c r="A11" s="4"/>
-      <c r="B11" s="4"/>
-      <c r="C11" s="4"/>
-      <c r="D11" s="4"/>
-      <c r="E11" s="4"/>
-      <c r="F11" s="4"/>
-      <c r="G11" s="4"/>
-      <c r="H11" s="4"/>
-      <c r="I11" s="4"/>
-      <c r="J11" s="4"/>
-      <c r="K11" s="4"/>
-      <c r="L11" s="4"/>
-      <c r="M11" s="4"/>
-      <c r="N11" s="4"/>
-      <c r="O11" s="4"/>
+      <c r="A11" s="2"/>
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+      <c r="I11" s="2"/>
+      <c r="J11" s="2"/>
+      <c r="K11" s="2"/>
+      <c r="L11" s="2"/>
+      <c r="M11" s="2"/>
+      <c r="N11" s="2"/>
+      <c r="O11" s="2"/>
     </row>
     <row r="12" ht="22.65" customHeight="1" spans="1:15">
-      <c r="A12" s="4"/>
-      <c r="B12" s="4"/>
-      <c r="C12" s="4"/>
-      <c r="D12" s="4"/>
-      <c r="E12" s="4"/>
-      <c r="F12" s="4"/>
-      <c r="G12" s="4"/>
-      <c r="H12" s="4"/>
-      <c r="I12" s="4"/>
-      <c r="J12" s="4"/>
-      <c r="K12" s="4"/>
-      <c r="L12" s="4"/>
-      <c r="M12" s="4"/>
-      <c r="N12" s="4"/>
-      <c r="O12" s="4"/>
+      <c r="A12" s="2"/>
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
+      <c r="I12" s="2"/>
+      <c r="J12" s="2"/>
+      <c r="K12" s="2"/>
+      <c r="L12" s="2"/>
+      <c r="M12" s="2"/>
+      <c r="N12" s="2"/>
+      <c r="O12" s="2"/>
     </row>
     <row r="13" ht="22.65" customHeight="1" spans="1:15">
-      <c r="A13" s="4"/>
-      <c r="B13" s="4"/>
-      <c r="C13" s="4"/>
-      <c r="D13" s="4"/>
-      <c r="E13" s="4"/>
-      <c r="F13" s="4"/>
-      <c r="G13" s="4"/>
-      <c r="H13" s="4"/>
-      <c r="I13" s="4"/>
-      <c r="J13" s="4"/>
-      <c r="K13" s="4"/>
-      <c r="L13" s="4"/>
-      <c r="M13" s="4"/>
-      <c r="N13" s="4"/>
-      <c r="O13" s="4"/>
+      <c r="A13" s="2"/>
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
+      <c r="I13" s="2"/>
+      <c r="J13" s="2"/>
+      <c r="K13" s="2"/>
+      <c r="L13" s="2"/>
+      <c r="M13" s="2"/>
+      <c r="N13" s="2"/>
+      <c r="O13" s="2"/>
     </row>
     <row r="14" ht="22.65" customHeight="1" spans="1:15">
-      <c r="A14" s="4"/>
-      <c r="B14" s="4"/>
-      <c r="C14" s="4"/>
-      <c r="D14" s="4"/>
-      <c r="E14" s="4"/>
-      <c r="F14" s="4"/>
-      <c r="G14" s="4"/>
-      <c r="H14" s="4"/>
-      <c r="I14" s="4"/>
-      <c r="J14" s="4"/>
-      <c r="K14" s="4"/>
-      <c r="L14" s="4"/>
-      <c r="M14" s="4"/>
-      <c r="N14" s="4"/>
-      <c r="O14" s="4"/>
+      <c r="A14" s="2"/>
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2"/>
+      <c r="H14" s="2"/>
+      <c r="I14" s="2"/>
+      <c r="J14" s="2"/>
+      <c r="K14" s="2"/>
+      <c r="L14" s="2"/>
+      <c r="M14" s="2"/>
+      <c r="N14" s="2"/>
+      <c r="O14" s="2"/>
     </row>
     <row r="15" ht="22.65" customHeight="1" spans="1:15">
-      <c r="A15" s="4"/>
-      <c r="B15" s="4"/>
-      <c r="C15" s="4"/>
-      <c r="D15" s="4"/>
-      <c r="E15" s="4"/>
-      <c r="F15" s="4"/>
-      <c r="G15" s="4"/>
-      <c r="H15" s="4"/>
-      <c r="I15" s="4"/>
-      <c r="J15" s="4"/>
-      <c r="K15" s="4"/>
-      <c r="L15" s="4"/>
-      <c r="M15" s="4"/>
-      <c r="N15" s="4"/>
-      <c r="O15" s="4"/>
+      <c r="A15" s="2"/>
+      <c r="B15" s="2"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2"/>
+      <c r="H15" s="2"/>
+      <c r="I15" s="2"/>
+      <c r="J15" s="2"/>
+      <c r="K15" s="2"/>
+      <c r="L15" s="2"/>
+      <c r="M15" s="2"/>
+      <c r="N15" s="2"/>
+      <c r="O15" s="2"/>
     </row>
     <row r="16" ht="22.65" customHeight="1" spans="1:15">
-      <c r="A16" s="4"/>
-      <c r="B16" s="4"/>
-      <c r="C16" s="4"/>
-      <c r="D16" s="4"/>
-      <c r="E16" s="4"/>
-      <c r="F16" s="4"/>
-      <c r="G16" s="4"/>
-      <c r="H16" s="4"/>
-      <c r="I16" s="4"/>
-      <c r="J16" s="4"/>
-      <c r="K16" s="4"/>
-      <c r="L16" s="4"/>
-      <c r="M16" s="4"/>
-      <c r="N16" s="4"/>
-      <c r="O16" s="4"/>
+      <c r="A16" s="2"/>
+      <c r="B16" s="2"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2"/>
+      <c r="H16" s="2"/>
+      <c r="I16" s="2"/>
+      <c r="J16" s="2"/>
+      <c r="K16" s="2"/>
+      <c r="L16" s="2"/>
+      <c r="M16" s="2"/>
+      <c r="N16" s="2"/>
+      <c r="O16" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
